--- a/data.xlsx
+++ b/data.xlsx
@@ -14107,7 +14107,7 @@
         <v>No</v>
       </c>
       <c r="G596" t="str">
-        <v/>
+        <v>ضیغم عباس</v>
       </c>
     </row>
     <row r="597">

--- a/data.xlsx
+++ b/data.xlsx
@@ -14107,7 +14107,7 @@
         <v>No</v>
       </c>
       <c r="G596" t="str">
-        <v>ضیغم عباس</v>
+        <v>Zaigham Shah</v>
       </c>
     </row>
     <row r="597">

--- a/data.xlsx
+++ b/data.xlsx
@@ -468,7 +468,7 @@
         <v>No</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>murshad</v>
       </c>
     </row>
     <row r="4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -465,7 +465,7 @@
         <v>3/10/25</v>
       </c>
       <c r="F3" t="str">
-        <v>No</v>
+        <v>yes</v>
       </c>
       <c r="G3" t="str">
         <v>murshad</v>
@@ -491,7 +491,7 @@
         <v>No</v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">incomplete record </v>
+        <v>kamyab</v>
       </c>
     </row>
     <row r="5">

--- a/data.xlsx
+++ b/data.xlsx
@@ -465,7 +465,7 @@
         <v>3/10/25</v>
       </c>
       <c r="F3" t="str">
-        <v>yes</v>
+        <v>No</v>
       </c>
       <c r="G3" t="str">
         <v>murshad</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -514,7 +514,7 @@
         <v>No</v>
       </c>
       <c r="G5" t="str">
-        <v>incomplete record</v>
+        <v>Bismillah</v>
       </c>
     </row>
     <row r="6">

--- a/data.xlsx
+++ b/data.xlsx
@@ -514,7 +514,7 @@
         <v>No</v>
       </c>
       <c r="G5" t="str">
-        <v>Bismillah</v>
+        <v>bismillah</v>
       </c>
     </row>
     <row r="6">

--- a/data.xlsx
+++ b/data.xlsx
@@ -534,10 +534,10 @@
         <v>3/10/25</v>
       </c>
       <c r="F6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G6" t="str">
-        <v>working on interim/ blocking</v>
+        <v>nakaam</v>
       </c>
     </row>
     <row r="7">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>bawa g</v>
+        <v>test</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>No</v>
       </c>
       <c r="G3" t="str">
-        <v>murshad</v>
+        <v>test</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>No</v>
       </c>
       <c r="G4" t="str">
-        <v>kamyab</v>
+        <v>test</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>No</v>
       </c>
       <c r="G5" t="str">
-        <v>bismillah</v>
+        <v>test</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>No</v>
       </c>
       <c r="G6" t="str">
-        <v>nakaam</v>
+        <v>test</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>No</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="8">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>test</v>
+        <v>bawa g</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>No</v>
       </c>
       <c r="G3" t="str">
-        <v>test</v>
+        <v>murshad</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>No</v>
       </c>
       <c r="G4" t="str">
-        <v>test</v>
+        <v>kamyab</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>No</v>
       </c>
       <c r="G5" t="str">
-        <v>test</v>
+        <v>bismillah</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>No</v>
       </c>
       <c r="G6" t="str">
-        <v>test</v>
+        <v>nakaam</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>No</v>
       </c>
       <c r="G7" t="str">
-        <v>test</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -8423,7 +8423,7 @@
         <v>3/6/25</v>
       </c>
       <c r="F349" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G349" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8403,7 +8403,7 @@
         <v>No</v>
       </c>
       <c r="G348" t="str">
-        <v/>
+        <v>yaar kya hai</v>
       </c>
     </row>
     <row r="349">
@@ -8423,7 +8423,7 @@
         <v>3/6/25</v>
       </c>
       <c r="F349" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G349" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>bawa g</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -445,7 +445,7 @@
         <v>yes</v>
       </c>
       <c r="G2" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
